--- a/biology/Zoologie/Abraxas_(papillon)/Abraxas_(papillon).xlsx
+++ b/biology/Zoologie/Abraxas_(papillon)/Abraxas_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraxas est un genre de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -511,31 +523,136 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par le naturaliste britannique William Elford Leach en 1815. L'espèce type est Phalaena grossulariata (Linnaeus, 1758)[1].
-Synonymie
-Spilote (Hübner, 1806) [2]
-Zerene (Treitschke, 1825)[3]. Attention le genre Zerene (Hübner, 1819) est reconnu. Ce sont des Pieridae vivant en Amérique.
-Calospilos (Hübner, 1825)[4]
-Callispilus (Agassiz, 1847)[5]
-Potera (Moore, 1879)[6]
-Omophyseta (Warren, 1894)[7]
-Silabraxas (Swinhoe, 1900)[8]
-Chooreechillum (Lucas, 1901)[9]
-Dextridens (Wehrli, 1934)[10]
-Isostictia (Wehrli, 1934)[11]
-Diceratodesia (Wehrli, 1935)[12]
-Mesohypoleuca (Wehrli, 1935)[13]
-Rhabdotaedoeagus (Wehrli, 1935)[14]
-Spinuncus (Wehrli, 1935)[15]
-Trimeresia (Wehrli, 1935)[16]
-Taxinomie
-Deux sous-genres sont reconnus :
-Abraxas (Abraxas)[17]
-Abraxas (Calospilos) (Hübner, 1825)
-Espèces rencontrées en Europe
-Abraxas (Abraxas) grossulariata (Linnaeus, 1758) - Zérène du groseillier
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par le naturaliste britannique William Elford Leach en 1815. L'espèce type est Phalaena grossulariata (Linnaeus, 1758).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abraxas_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Spilote (Hübner, 1806) 
+Zerene (Treitschke, 1825). Attention le genre Zerene (Hübner, 1819) est reconnu. Ce sont des Pieridae vivant en Amérique.
+Calospilos (Hübner, 1825)
+Callispilus (Agassiz, 1847)
+Potera (Moore, 1879)
+Omophyseta (Warren, 1894)
+Silabraxas (Swinhoe, 1900)
+Chooreechillum (Lucas, 1901)
+Dextridens (Wehrli, 1934)
+Isostictia (Wehrli, 1934)
+Diceratodesia (Wehrli, 1935)
+Mesohypoleuca (Wehrli, 1935)
+Rhabdotaedoeagus (Wehrli, 1935)
+Spinuncus (Wehrli, 1935)
+Trimeresia (Wehrli, 1935)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abraxas_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux sous-genres sont reconnus :
+Abraxas (Abraxas)
+Abraxas (Calospilos) (Hübner, 1825)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abraxas_(papillon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_(papillon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraxas (Abraxas) grossulariata (Linnaeus, 1758) - Zérène du groseillier
 Abraxas (Calospilos) pantaria (Linnaeus, 1767) - Zérène du frêne
 Abraxas (Calospilos) sylvata (Scopoli, 1763) - Zérène de l'orme
 			Abraxas grossulariata - Muséum de Toulouse
